--- a/seker/seker_kod.xlsx
+++ b/seker/seker_kod.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48642577438d7495/שולחן העבודה/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\skarim\seker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="11_F25DC773A252ABDACC104808C99957545BDE58F4" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{03254390-81D9-4B45-99E9-687A157B65D6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF425AD-CF04-42C0-8AD1-C5A0BE3E3A0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -398,26 +398,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C2">
         <v>2.2999999999999998</v>
       </c>
@@ -481,7 +481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>123456</v>
       </c>
@@ -516,7 +516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>222222</v>
       </c>
@@ -548,7 +548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>333333</v>
       </c>
